--- a/P0002/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0002/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0002\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="627" documentId="13_ncr:1_{726E0FAF-3CA9-4E36-8D66-804E94F4492B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7B8AF55-1E53-4A4E-B8D8-68B0DD63937E}"/>
+  <xr:revisionPtr revIDLastSave="659" documentId="13_ncr:1_{726E0FAF-3CA9-4E36-8D66-804E94F4492B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29AB243E-DEA1-4CC7-ADCA-77E02BE02C8F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="150">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -98,6 +98,279 @@
     <t>P0002</t>
   </si>
   <si>
+    <t>PR0001</t>
+  </si>
+  <si>
+    <t>TOMO_2_MODELO HIDROLOGICO</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_4/TOMO_2_MODELO HIDROLOGICO.pdf</t>
+  </si>
+  <si>
+    <t>PNUD</t>
+  </si>
+  <si>
+    <t>PUJ (PONTIFICIA UNIVERSIDAD JAVERIANA) IJA (INSTITUTO JAVERIANO DEL AGUA)</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>El documento "Modelo hidrológico", corresponde al tomo 2 del producto 4, en el marco del proyecto que titula "Modelo de flujo y calidad de aguas subterráneas para determinar la dependencia a largo plazo de las soluciones de aguas subterráneas en La Mojana". El informe describe la conceptualización del modelo SWAT, la información con la cual se construyó la simulación y los resultados a nivel de subcuenca de las variables precipitación media anual, evapotranspiración potencial media anual, evapotranspiración real media anual, escorrentía media anual y recarga media anual.</t>
+  </si>
+  <si>
+    <t>Informe</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>Este documento presenta los componentes, la construcción y los resultados del modelo hidrológico del área afluente a La Mojana. Utilizando información climática diaria y mensual (1976-2015), así como datos de suelos, topografía y coberturas, se realiza un balance hídrico para obtener valores mensuales y anuales de los principales componentes del ciclo hidrológico: precipitación, escorrentía, evapotranspiración y recarga. Contiene Anexos</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_4/ANEXOS_PRODUCTO 4/ANEXOS TOMO 2/1_MODELO_HIDROLOGICO</t>
+  </si>
+  <si>
+    <t>Documento con observaciones no parece documento final</t>
+  </si>
+  <si>
+    <t>Hidrología, precipitación, recarga, evapotranspiración, subcuencas, escorrentía, caudales</t>
+  </si>
+  <si>
+    <t>PR0002</t>
+  </si>
+  <si>
+    <t>PRODUCTO_9</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_9/PRODUCTO_9.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El documento "Guía del modelo hidrogeológico numérico", corresponde producto 9, en el marco del proyecto que titula "Modelo de flujo y calidad de aguas subterráneas para determinar la dependencia a largo plazo de las soluciones de aguas subterráneas en La Mojana". El documento corresponde a una guía que describe de manera general algunos conceptos básicos de modelación hidrogeológica, una síntesis del modelo hidrogeológico conceptual y una descripción detallada del cargue del modelo hidrogeológico numérico en la plataforma ModelMuse. Además describe el uso del ModelMuse para visualizar, editar y ejecutar el modelo actual y realizar modicicaciones para la construcción de nuevos modelos más detallados en la misma zona de estudio. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El informe contiene la guía del uso del modelo numérico hidrogeológico, el cual fue desarrollado en el producto 5. La guía brinda acompañamiento en la instalación, ejecución y uso del modelo. Ayuda al usuario al análisis del modelo, facilita la retroalimentación del modelo y los procesos de transferencia, asimilación y disponibilidad oportuna de las herramientas para la toma de decisiones. En la guía se describe el paso a paso para el cargue de elementos, ejecución, modificación y obtención de resultados. </t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_9/ANEXOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta guía no sirve para la toma de decisiones, pero es un documento muy importante de consulta para el uso del modelo hidrogeológico numérico. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modelo hidrogeológico numérico, guía de modelación, agua subterránea, dominio modelación, entradas modelo, salidas modelo, resultado modelo, Modflow, ModeMmuse. </t>
+  </si>
+  <si>
+    <t>PR0003</t>
+  </si>
+  <si>
+    <t>PRODUCTO_5</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_5/PRODUCTO_5.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El documento "Modelo hidrogeológico numérico", corresponde producto 5, en el marco del proyecto que titula "Modelo de flujo y calidad de aguas subterráneas para determinar la dependencia a largo plazo de las soluciones de aguas subterráneas en La Mojana".  Este informe presenta todos los elementos utilizados para la construcción y análisis del modelo hidrogeológico numérico de la región de la Mojana, en el que se describen las interacciones agua superficial, agua subterránea. Se presenta además un capítulo de salud pública y calidad del agua subterránea en el que se evalúan algunos indicadores de calidad. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El informe se estructura en varios capítulos, comenzando con un modelo hidrogeológico conceptual que describe las características geológicas de la región, utilizando datos del Atlas Geológico de Colombia y resultados de modelación geológica 3D. Se analizan aspectos hidráulicos, hidroquímicos, isotópicos y sistemas de flujo, lo que permite construir un modelo conceptual robusto que sirva de base para el desarrollo del modelo numérico.
+El documento también detalla la importancia del pH y la conductividad eléctrica del agua subterránea, que son indicadores de los procesos geoquímicos que ocurren en la interacción agua-roca. Se identifican dos zonas en La Mojana: una con pH ácido-neutro y otra con pH alcalino, lo que refleja la variabilidad en la calidad del agua en diferentes áreas. La conductividad eléctrica también muestra diferencias significativas entre las zonas, lo que sugiere variaciones en la composición química del agua subterránea.
+El desarrollo del modelo hidrogeológico numérico se basa en la selección de software adecuado y la construcción de una malla de diferencias finitas, que permite simular el flujo de agua subterránea. Se discuten aspectos técnicos sobre la discretización de la malla, buscando un balance entre precisión y eficiencia computacional. La malla se diseñó con un tamaño de celda de 1000 metros, lo que permite una representación adecuada del dominio hidrogeológico.
+El modelo hidrogeológico numérico permite simular el flujo y la calidad del agua subterránea en La Mojana. Este modelo fue calibrado y validado utilizando datos piezométricos y de calidad del agua, lo que indica un desempeño aceptable a pesar de la incertidumbre en los datos utilizados. Se realizó un análisis de la calidad del agua subterránea, encontrando variaciones significativas en parámetros como el pH y la conductividad eléctrica. Estas variaciones reflejan la influencia de procesos geoquímicos y la interacción entre el agua y las formaciones geológicas de la región. El modelo también permite investigar escenarios de conexión entre humedales y acuíferos, lo que es crucial para entender la dinámica hídrica de la región y su impacto en la disponibilidad de agua.
+Uno de los puntos clave del documento es la identificación de factores que intensifican el surgimiento de enfermedades transmitidas por el agua (EVA), como cambios en los patrones de uso del agua, crecimiento poblacional, urbanización, y el uso creciente de antibióticos en animales y humanos. Estos factores son cruciales para entender la calidad del agua y su impacto en la salud pública, especialmente en comunidades vulnerables donde las enfermedades diarreicas son una de las principales causas de mortalidad infantil. Se destacó la verificación de coliformes totales en el agua subterránea como indicador crítico para evaluar riesgos sanitarios
+</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_5/ANEXOS_PRODUCTO_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El documento contiene información de variables valiosa para el modelo de toma de decisiones, como niveles piezométricos, indicadores de salud pública, flujo base de salida de agua subterránea a superficie. Estas variables se detallanen las fichas N3 y N4. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modelo hidrogeológico numérico, modelo hidrogeológico conceptual, agua subterránea, IRCA, EDA, EVA, vulnerabilidad a los acuíferos, hidroquímica, isotopía, escenarios de modelación, calidad del agua, riesgo, priorización de acciones, </t>
+  </si>
+  <si>
+    <t>PR0004</t>
+  </si>
+  <si>
+    <t>Tomo 2. Analisis de resultados</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_3/Tomo 2. Analisis de resultados.pdf</t>
+  </si>
+  <si>
+    <t>El documento "Análisis de resultados", corresponde al tomo 2 del producto 3, en el marco del proyecto que titula "Modelo de flujo y calidad de aguas subterráneas para determinar la dependencia a largo plazo de las soluciones de aguas subterráneas en La Mojana". Este documento contiene el análisis de la información primaria recolectada en campo, para la realización del modelo de flujo y calidad del agua subterránea.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El documento contiene el análisis de la información primaria recolectada en campo. Como pruebas de bombeo en 52 pozos, muestreo hidroquímico, muestreo isotópico, interpretacion de tomografías. Adicionalemnte presenta avances del modelo geológico 3D y cortes hidrogeológicos del modelo preliminar. Esta información es de valioso interés para aquellos usuarios que deseen complementar el modelo hidrogeológico conceptual y numérico, pues permite comprender los vacíos de información existentes en el área de estudio. </t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_3/ANEXOS/ANEXOS TOMO 2/1_PRUEBAS DE BOMBEO"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El documento no contiene información de variables para la toma de decisiones al ser un archivo en un estado de procesamiento, aun no se tienen en este punto resultados finales. Pero si coresponde a una información importante para conocer la validez de los datos usados en los modelos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pruebas de bombeo, analisis hidrogeoquímico, información  primaria, muestreo en campo, analisis isotópico, tomografías. </t>
+  </si>
+  <si>
+    <t>PR0005</t>
+  </si>
+  <si>
+    <t>TOMO 1_MODELO HIDROGEOLOGICO</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_4/TOMO 1_MODELO HIDROGEOLOGICO.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El documento "Modelo hidrogeológico conceptual", corresponde al tomo 1 del producto 4, en el marco del proyecto que titula "Desarrollar un Modelo de flujo y calidad de aguas subterráneas para determinar la dependencia a largo plazo de las soluciones de aguas subterráneas en La Mojana". Este documento contiene la descripción de la construcción del modelo hidrogeológico conceptual que es la base de construcción del modelo hidrogeológico numérico. Por otra parte, el documento presenta un análisis de vulnerabilidad a la contaminación de los acuíferos por tres metodologías.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El modelo hidrogeológico conceptual se basa en la identificación de zonas de recarga y descarga, así como en la escorrentía y la interacción entre cuerpos de agua superficiales y aguas subterráneas. Se definen los límites del modelo y se analiza la variabilidad espaciotemporal de los principales parámetros hidrogeológicos. Para ello, se utilizan metodologías como el Proceso de Jerarquía Analítica (PJA), que permite asignar pesos a diferentes factores que influyen en la recarga de aguas subterráneas, como la litología, la densidad de lineamientos y la precipitación.
+El informe también aborda la calidad de las aguas subterráneas en La Mojana, identificando zonas con diferentes niveles de conductividad eléctrica, lo que indica la presencia de iones disueltos en el agua. Se identifican dos zonas diferenciadas: una con conductividades entre 23 y 200 μS/cm y otra con conductividades superiores a 250 μS/cm. Esta información es crucial para entender la calidad del agua y su idoneidad para diferentes usos. El modelo preliminar concluye que el flujo regional se dirige hacia el noreste, es decir, hacia el complejo cenagoso, y que la recarga potencial se transfiere lateralmente a baja profundidad.
+Además, se menciona la construcción de un mapa de vulnerabilidad intrínseca a la contaminación, utilizando al menos tres metodologías distintas, incluyendo las metodologías GOD y DRASTIC.  Se determinó que el periodo más crítico es el asociado a la recarga por condiciones húmedas (año Niña). Los municipios que presentan mayor vulnerabilidad a la contaminación según las tres metodologías son Ayapel, Majagual, Achí y Guaranda. Este mapa es fundamental para identificar puntos y fuentes difusas de contaminantes, así como para investigar la interacción de estas fuentes con los pozos circundantes.
+El alcance del proyecto se enmarca dentro de un macroproyecto que busca escalar prácticas de gestión del agua resilientes al cambio climático para comunidades vulnerables en La Mojana. Se espera que los resultados del estudio proporcionen lecciones aprendidas y herramientas que contribuyan a la formulación de políticas públicas de adaptación al cambio climático y gestión de aguas subterráneas a nivel nacional.
+El documento se estructura en varios capítulos, donde se presenta una descripción detallada del modelo hidrogeológico conceptual y los mapas de vulnerabilidad a la contaminación. También se incluye un análisis de la configuración geológica de La Mojana y los resultados de la modelación geológica 3D, que ayudan a comprender mejor el sistema hidrogeológico y su interacción con el entorno.
+En conclusión, el informe es un esfuerzo significativo para abordar la gestión sostenible de los recursos hídricos en La Mojana, proporcionando un marco conceptual y metodológico que puede ser utilizado por los actores institucionales y comunitarios para mejorar la resiliencia de la región frente a los desafíos del cambio climático y la contaminación. </t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_4/ANEXOS_PRODUCTO 4/ANEXOS TOMO 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El documento contiene información de variables valiosa para el modelo de toma de decisiones, como niveles piezométricos, mapas de vulnerabilidad a la contaminación, flujo base de salida de agua subterránea a superficie. Estas variables se detallanen las fichas N3 y N4. </t>
+  </si>
+  <si>
+    <t>Modelo hidrogeológico conceptual, datación agua subterránea, vulnerabilidad a la contaminación, acuíferos, recarga potencial, direcciones del flujo, interacción agua subterránea ciénaga, pozos, nivel piezométrico.</t>
+  </si>
+  <si>
+    <t>PR0006</t>
+  </si>
+  <si>
+    <t>PRODUCTO_6</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_6/PRODUCTO_6.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El documento "Base de datos SIG", corresponde al producto 6, en el marco del proyecto que titula "Modelo de flujo y calidad de aguas subterráneas para determinar la dependencia a largo plazo de las soluciones de aguas subterráneas en La Mojana". Este documento representa una guía para la lectura y navegación en la base de datos geográfica (GBD). Contiene la descripción de la estructura de la base de datos geográfica consolidada en el proyecto. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se presenta el contenido de la estructura de las carpetas, estructura general de la geodatabase (GDB), se describe la información complementaria como los diccionarios de datos, y los archivos asociados a las salidas cartográficas. </t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_6/1_Base_de_datos_cartografica; s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_6/2_Salidas_Cartograficas"</t>
+  </si>
+  <si>
+    <t>El documento no contiene variables para la toma de decisiones, pero es un documento de consulta básico para la navegación de la base de datos geenrada por el proyecto.</t>
+  </si>
+  <si>
+    <t>Geodatabase, salidas cartográficas</t>
+  </si>
+  <si>
+    <t>PR0007</t>
+  </si>
+  <si>
+    <t>PRODUCTO 10</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_10/PRODUCTO 10.pdf</t>
+  </si>
+  <si>
+    <t>El documento corresponde al producto 10, en el marco del proyecto que titula "Modelo de flujo y calidad de aguas subterráneas para determinar la dependencia a largo plazo de las soluciones de aguas subterráneas en La Mojana". En documento compila los resultados de los 16 talleres realizados con los actores de la región en la socialización del proyecto y su utilidad en los planes de desarrollo de La Mojana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se realizó la socialización de los resultados obtenidos direccionados a cada uno de los actores: instituciones nacionales con interés en las aguas subterráneas, corporaciones, comunidad y academia. En total se desarrollaron 16 talleres.
+Se presentan las lecciones aprendidas relevantes e instrumentos que contribuyen a la formulación de políticas de adaptación al cambio climático y la gestión de las aguas subterráneas a nivel nacional. Se menciona la utilidad del modelo para cada actor como por ejemplo:  asignación de concesiones, gestión del acuífero, apoyo al PMAA, mapas de inundación, abastecimiento de agua a la población, gestión del riesgo, gestión de micro acueductos y pozos particulares, perímetros de protección de pozos. </t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>El documento no contiene variables para el modelo de toma de decisiones. Pero corresponde a un producto importante para conocer los actores a los cuales fue socializado el proyecto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Socialización, academia, gestión del conocimiento, actores, toma de decisiones, utilidad del modelo, transferencia de conocimiento, acueductos particulares, protección de pozos. </t>
+  </si>
+  <si>
+    <t>PR0008</t>
+  </si>
+  <si>
+    <t>A2-Métricas_de_comparación-Validación_de_precipitación</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_5/CAMBIO CLIMATICO/ANEXOS_CAMBIO_CLIMATICO/A2-Métricas_de_comparación-Validación_de_precipitación.pdf</t>
+  </si>
+  <si>
+    <t>El documento "Anexo 2 Validación de la precipitación en el área de estudio para el periodo de referencia - elección de GCM", corresponde al anexo 2 del producto 5 Cambio Climático, en el marco del proyecto que titula "Modelo de flujo y calidad de aguas subterráneas para determinar la dependencia a largo plazo de las soluciones de aguas subterráneas en La Mojana". El documento muestra las métricas de comparación del análisis de variabilidad climática para el clima de referencia y que permita identificar el Modelo Climático Global GCM.</t>
+  </si>
+  <si>
+    <t>El informe de métricas permitió identificar el Modelo Climático Global (GCM) seleccionado, utilizando el error medio absoluto (MAE), la raíz del error medio cuadrático (RMSE), el sesgo (BIAS) y el coeficiente de correlación de Pearson. Además, se realizó un análisis de la variabilidad climática intraanual mediante el índice de anomalías de la precipitación y eventos ENOS. Para ello, se empleó la metodología de Downscaling estadístico, que permitió obtener series futuras con una resolución diaria para el periodo 2020-2100. Cada variable muestra una tendencia al aumento en parámetros como la temperatura y la velocidad del viento. En contraste, los parámetros de precipitación, humedad relativa y radiación solar presentan una tendencia a la disminución.</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_5/CAMBIO CLIMATICO/ANEXOS_CAMBIO_CLIMATICO/ANEXO_3</t>
+  </si>
+  <si>
+    <t>Este documento puede ser util para la toma de decisiones al presentar métricas concretas para identificar cambios en el clima local</t>
+  </si>
+  <si>
+    <t>SPI, sequía, índice de precipitación estandarizado, clima de referencia, normal climática, cambio climático, downscaling, ENOS, ENSO, anomalía, MAE, RMSE, BIAS</t>
+  </si>
+  <si>
+    <t>PR0009</t>
+  </si>
+  <si>
+    <t>MODELO HIDRODINAMICO MOJANA</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_4/MODELO HIDRODINAMICO/MODELO HIDRODINAMICO MOJANA.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El documento "Modelo hidrodinámico de la Mojana", corresponde al producto 4, en el marco del proyecto que titula "Modelo de flujo y calidad de aguas subterráneas para determinar la dependencia a largo plazo de las soluciones de aguas subterráneas en La Mojana". El documento presenta el desarrollo de un modelo hidrodinámico para la región de La Mojana, que corresponde a un insumo como condición de frontera y análisis de resultados para el modelo hidrogeológico numérico de núcleo de La Mojana. </t>
+  </si>
+  <si>
+    <t>Este documento esta estructurado en cuatro capitulos: 1) Recopilación y analisis de información secundaria de tipo hidrológica y topobatimetrica. 2) Generación de insumos para el montaje del modelo hidrodinámico. En este capitulo se realiza un refinamiento al modelo de elevación digital. 3) Configuración general del modelo generado. En este capitulo se describen las condiciones iniciales y de frontera, parametros numéricos, variables de control y la malla computacional. 4) Resultados. En este capitulo se presentan resultados de velocidad y profundidad del flujo. Contiene Anexos</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_4/MODELO HIDRODINAMICO/ANEXOS</t>
+  </si>
+  <si>
+    <t>Documento que detalla el modelo util en la toma de decisiones</t>
+  </si>
+  <si>
+    <t>Modelación hidrodinámica, DEM, openTELEMAC, Profundidades del flujo, velocidades del flujo.</t>
+  </si>
+  <si>
+    <t>PR0010</t>
+  </si>
+  <si>
+    <t>2_Análisis_multitemporal</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_3/ANEXOS/ANEXOS_TOMO 3_AVANCE MODELO HIDROLOGICO_HIDRODINAMICO/1_ANEXOS MODELO HIDROLOGICO/1_DOCUMENTOS/2_Análisis_multitemporal.pdf</t>
+  </si>
+  <si>
+    <t>El documento corresponde a un ANEXO del avance del modelo hidrológico, que corresponde al producto 3, en el marco del proyecto que titula "Modelo de flujo y calidad de aguas subterráneas para determinar la dependencia a largo plazo de las soluciones de aguas subterráneas en La Mojana". El documento contiene el análisis multitemporal de variación de coberturas del suelo para cartografía Corine Land Cover de la región de La Mojana, para los periodos: 2000-2002, 2005-2009, 2010-2012 y 2017</t>
+  </si>
+  <si>
+    <t>Este informe se enfoca en un análisis multitemporal de las variaciones en las coberturas del suelo en la región de La Mojana, Colombia, utilizando la metodología Corine Land Cover (CLC) para los períodos 2000-2002, 2005-2009, 2010-2012 y 2017. La estructura del documento incluye secciones dedicadas a diferentes tipos de cobertura del suelo, como tejido urbano continuo y discontinuo, zonas industriales, red vial y aeropuertos. El objetivo del documento es evaluar cómo las transformaciones en el uso del suelo afectan la calidad y el flujo de las aguas subterráneas. Mediante comparaciones de datos, se observó un aumento del 0.25% en el tejido urbano continuo entre 2010-2012, mientras que el tejido urbano discontinuo disminuyó en un 0.06%. Además, se identificaron cambios en las zonas industriales y comerciales, así como en la infraestructura vial. Estos resultados son cruciales para comprender la dinámica del uso del suelo y su impacto en los recursos hídricos de la región, lo cual es fundamental para la planificación y gestión sostenible del agua en el área.</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_3/ANEXOS/ANEXOS_TOMO 3_AVANCE MODELO HIDROLOGICO_HIDRODINAMICO/1_ANEXOS MODELO HIDROLOGICO/1_DOCUMENTOS/3_Tabla_Coberturas_SWAT.xlsx
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_3/ANEXOS/ANEXOS_TOMO 3_AVANCE MODELO HIDROLOGICO_HIDRODINAMICO/1_ANEXOS MODELO HIDROLOGICO/1_DOCUMENTOS/4_Tabla_suelos_SWAT.xlsx</t>
+  </si>
+  <si>
+    <t>El documento presenta un análisis detallado de las variaciones en las coberturas del suelo en La Mojana. Sin embargo, la calidad de la información es variable, ya que la cobertura de datos para el año 2017 está generalizada a un nivel de detalle inferior (nivel 2), lo que limita su comparación con los otros periodos analizados (2000-2002, 2005-2009, 2010-2012). Esto genera un vacío en la información que podría afectar la validez de las conclusiones. Además, el documento presenta datos sobre cambios en el uso del suelo, pero no siempre proporciona un análisis profundo de las causas detrás de estos cambios</t>
+  </si>
+  <si>
+    <t>Análisis multitemporal, Coberturas del suelo, Corine Land Cover, calidad de aguas subterráneas, flujo de aguas subterráneas, impacto ambiental, dinámicas socioeconómicas, planificación sostenible, gestión de recursos hídricos</t>
+  </si>
+  <si>
     <t>PR0011</t>
   </si>
   <si>
@@ -107,22 +380,7 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_1/PRODUCTO_1_TOMO_1.pdf</t>
   </si>
   <si>
-    <t>PNUD</t>
-  </si>
-  <si>
-    <t>PUJ (PONTIFICIA UNIVERSIDAD JAVERIANA) IJA (INSTITUTO JAVERIANO DEL AGUA)</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El documento "Recopilación de información secundaria", corresponde al tomo 1 del producto 1, en el marco del proyecto que titula "Modelo de Flujo y Calidad de Aguas Subterráneas para Determinar la Dependencia a Largo Plazo de las Soluciones de Aguas Subterráneas en La Mojana". El objetivo del informe de "Recopilación de información secundaria" es compilar y sistematizar datos relevantes provenientes de estudios previos, archivos y fuentes institucionales locales, regionales y nacionales. Esta información incluye un inventario de pozos y piezómetros, mapas geológicos e hidrogeológicos, estudios hidrogeoquímicos e información hidrometeorológica para desarrollar un balance hídrico de las cuencas relacionadas con el acuífero regional de La Mojana, así como para construir modelos hidrogeológicos y entender las interacciones entre la superficie y el subsuelo. </t>
-  </si>
-  <si>
-    <t>Informe</t>
-  </si>
-  <si>
-    <t>pdf</t>
+    <t xml:space="preserve">El documento "Recopilación de información secundaria", corresponde al tomo 1 del producto 1, en el marco del proyecto que titula "Modelo de flujo y calidad de aguas subterráneas para determinar la dependencia a largo plazo de las soluciones de aguas subterráneas en La Mojana". El objetivo del informe de "Recopilación de información secundaria" es compilar y sistematizar datos relevantes provenientes de estudios previos, archivos y fuentes institucionales locales, regionales y nacionales. Esta información incluye un inventario de pozos y piezómetros, mapas geológicos e hidrogeológicos, estudios hidrogeoquímicos e información hidrometeorológica para desarrollar un balance hídrico de las cuencas relacionadas con el acuífero regional de La Mojana, así como para construir modelos hidrogeológicos y entender las interacciones entre la superficie y el subsuelo. </t>
   </si>
   <si>
     <t xml:space="preserve">El documento brinda inicialmente un contexto hidrológico, donde realiza una descripción general de la zona de estudio, incluyendo aspectos geográficos, climáticos y socioeconómicos que influyen en la disponibilidad y calidad del agua. Se destaca la importancia de las aguas subterráneas como recurso esencial, especialmente en épocas de sequía. Hace una recopilación de las actuaciones del Fondo Adaptación y PNUD en la región de La Mojana. 
@@ -133,9 +391,6 @@
 </t>
   </si>
   <si>
-    <t>Si</t>
-  </si>
-  <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_1/ANEXOS/ANEXOS_TOMO1_RECOPILACIÓN_INF_SECUNDARIA</t>
   </si>
   <si>
@@ -154,7 +409,7 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_1/PRODUCTO_1_TOMO_2.pdf</t>
   </si>
   <si>
-    <t>El documento "Cálculo de Balance Hídrico", corresponde al tomo 2 del producto 1, en el marco del proyecto que titula "Modelo de Flujo y Calidad de Aguas Subterráneas para Determinar la Dependencia a Largo Plazo de las Soluciones de Aguas Subterráneas en La Mojana". El objetivo del informe de "Cálculo de balance hídrico " es desarrollar un balance hídrico de las cuencas relacionadas con el acuífero regional de La Mojana. Esta actividad también incluirá la construcción de hidrogramas de flujo en las estaciones disponibles con el fin de investigar las interacciones superficie-subsuelo.</t>
+    <t>El documento "Cálculo de Balance Hídrico", corresponde al tomo 2 del producto 1, en el marco del proyecto que titula "Modelo de flujo y calidad de aguas subterráneas para determinar la dependencia a largo plazo de las soluciones de aguas subterráneas en La Mojana". El objetivo del informe de "Cálculo de balance hídrico " es desarrollar un balance hídrico de las cuencas relacionadas con el acuífero regional de La Mojana. Esta actividad también incluyó la construcción de hidrogramas de flujo en las estaciones disponibles con el fin de investigar las interacciones superficie-subsuelo.</t>
   </si>
   <si>
     <t>El informe se centra en una delimitación para los análisis hidrológicos no solo de la región de La Mojana, sino también de las zonas de afluencia a esta. Su objetivo es presentar la conectividad de La Mojana con las cuencas afluentes, lo que permite entender la complejidad del hidrosistema e identificar la influencia que gran parte del territorio nacional ejerce sobre esta región. Además, se incluye un inventario de la información hidrológica y climatológica disponible, basada en los registros de mediciones realizados por el IDEAM en la región. Esta información fue solicitada al IDEAM a través del PNUD para su posterior análisis y uso en los modelos desarrollados en el proyecto.
@@ -168,34 +423,6 @@
     <t>Hidrología, precipitación, flujos de entrada, flujos de salida, ENA 2018, evapotranspiración real, evapotranspiración, potencial, balance hídrico, información secundaria, radiación solar, temperatura, escorrentía, recarga, caudal base</t>
   </si>
   <si>
-    <t>PR0007</t>
-  </si>
-  <si>
-    <t>PRODUCTO 10</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_10/PRODUCTO 10.pdf</t>
-  </si>
-  <si>
-    <t>El documento corresponde al producto 10, en el marco del proyecto que titula "Modelo de Flujo y Calidad de Aguas Subterráneas para Determinar la Dependencia a Largo Plazo de las Soluciones de Aguas Subterráneas en La Mojana". En documento compila los resultados de los 16 talleres realizados con los actores de la región en la socialización del proyecto y su utilidad en los planes de desarrollo de La Mojana.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se realizó la socialización de los resultados obtenidos direccionados a cada uno de los actores: instituciones nacionales con interés en las aguas subterráneas, corporaciones, comunidad y academia. En total se desarrollaron 16 talleres.
-Se presentan las lecciones aprendidas relevantes e instrumentos que contribuyen a la formulación de políticas de adaptación al cambio climático y la gestión de las aguas subterráneas a nivel nacional. Se menciona la utilidad del modelo para cada actor como por ejemplo:  asignación de concesiones, gestión del acuífero, apoyo al PMAA, mapas de inundación, abastecimiento de agua a la población, gestión del riesgo, gestión de micro acueductos y pozos particulares, perímetros de protección de pozos. </t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>El documento no contiene variables para el modelo de toma de decisiones. Pero corresponde a un producto importante para conocer los actores a los cuales fue socializado el proyecto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Socialización, academia, gestión del conocimiento, actores, toma de decisiones, utilidad del modelo, transferencia de conocimiento, acueductos particulares, protección de pozos. </t>
-  </si>
-  <si>
     <t>PR0013</t>
   </si>
   <si>
@@ -205,7 +432,7 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_2/PRODUCTO 2.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">El documento contiene el análisis de información secundaria, que corresponde al producto 2, en el marco del proyecto que titula "Modelo de Flujo y Calidad de Aguas Subterráneas para Determinar la Dependencia a Largo Plazo de las Soluciones de Aguas Subterráneas en La Mojana". El objetivo principal del documento es realizar el análisis de la información secundaria recopilada e identificar los vacíos de información para la planificación del trabajo de campo. Se presenta el análisis de la información hidrológica, hidrodinámica, información geológica, geofísica, hidrogeológica. Se realiza el plan de monitoreo y catacterización hidrogeológica, se definen las zonas para la realización de tomografías eléctricas. </t>
+    <t xml:space="preserve">El documento contiene el análisis de información secundaria, que corresponde al producto 2, en el marco del proyecto que titula "Modelo de flujo y calidad de aguas subterráneas para determinar la dependencia a largo plazo de las soluciones de aguas subterráneas en La Mojana". El objetivo principal del documento es realizar el análisis de la información secundaria recopilada e identificar los vacíos de información para la planificación del trabajo de campo. Se presenta el análisis de la información hidrológica, hidrodinámica, información geológica, geofísica, hidrogeológica. Se realiza el plan de monitoreo y catacterización hidrogeológica, se definen las zonas para la realización de tomografías eléctricas. </t>
   </si>
   <si>
     <t xml:space="preserve">La introducción del documento establece la importancia de las aguas subterráneas en la Mojana, una región que enfrenta desafíos significativos en la gestión de sus recursos hídricos. Se menciona la necesidad de un enfoque integral que contemple tanto la calidad como la cantidad de agua disponible, así como la interrelación entre los diferentes acuíferos.
@@ -224,31 +451,6 @@
     <t>Analisis de información secundaria, GAP, hidrología, hidráulica, hidrodinámica, geología, geofísica, hidrogeología, isotopos, hidrogeoquímica, tomografía.</t>
   </si>
   <si>
-    <t>PR0010</t>
-  </si>
-  <si>
-    <t>2_Análisis_multitemporal</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_3/ANEXOS/ANEXOS_TOMO 3_AVANCE MODELO HIDROLOGICO_HIDRODINAMICO/1_ANEXOS MODELO HIDROLOGICO/1_DOCUMENTOS/2_Análisis_multitemporal.pdf</t>
-  </si>
-  <si>
-    <t>El documento corresponde a un ANEXO del avance del modelo hidrológico, que corresponde al producto 3, en el marco del proyecto que titula "Modelo de Flujo y Calidad de Aguas Subterráneas para Determinar la Dependencia a Largo Plazo de las Soluciones de Aguas Subterráneas en La Mojana". El documento contiene el análisis multitemporal de variación de coberturas del suelo para cartografía Corine Land Cover de la región de La Mojana, para los periodos: 2000-2002, 2005-2009, 2010-2012 y 2017</t>
-  </si>
-  <si>
-    <t>Este informe se enfoca en un análisis multitemporal de las variaciones en las coberturas del suelo en la región de La Mojana, Colombia, utilizando la metodología Corine Land Cover (CLC) para los períodos 2000-2002, 2005-2009, 2010-2012 y 2017. La estructura del documento incluye secciones dedicadas a diferentes tipos de cobertura del suelo, como tejido urbano continuo y discontinuo, zonas industriales, red vial y aeropuertos. El objetivo del documento es evaluar cómo las transformaciones en el uso del suelo afectan la calidad y el flujo de las aguas subterráneas. Mediante comparaciones de datos, se observó un aumento del 0.25% en el tejido urbano continuo entre 2010-2012, mientras que el tejido urbano discontinuo disminuyó en un 0.06%. Además, se identificaron cambios en las zonas industriales y comerciales, así como en la infraestructura vial. Estos resultados son cruciales para comprender la dinámica del uso del suelo y su impacto en los recursos hídricos de la región, lo cual es fundamental para la planificación y gestión sostenible del agua en el área.</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_3/ANEXOS/ANEXOS_TOMO 3_AVANCE MODELO HIDROLOGICO_HIDRODINAMICO/1_ANEXOS MODELO HIDROLOGICO/1_DOCUMENTOS/3_Tabla_Coberturas_SWAT.xlsx
-s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_3/ANEXOS/ANEXOS_TOMO 3_AVANCE MODELO HIDROLOGICO_HIDRODINAMICO/1_ANEXOS MODELO HIDROLOGICO/1_DOCUMENTOS/4_Tabla_suelos_SWAT.xlsx</t>
-  </si>
-  <si>
-    <t>El documento presenta un análisis detallado de las variaciones en las coberturas del suelo en La Mojana. Sin embargo, la calidad de la información es variable, ya que la cobertura de datos para el año 2017 está generalizada a un nivel de detalle inferior (nivel 2), lo que limita su comparación con los otros periodos analizados (2000-2002, 2005-2009, 2010-2012). Esto genera un vacío en la información que podría afectar la validez de las conclusiones. Además, el documento presenta datos sobre cambios en el uso del suelo, pero no siempre proporciona un análisis profundo de las causas detrás de estos cambios</t>
-  </si>
-  <si>
-    <t>Análisis multitemporal, Coberturas del suelo, Corine Land Cover, calidad de aguas subterráneas, flujo de aguas subterráneas, impacto ambiental, dinámicas socioeconómicas, planificación sostenible, gestión de recursos hídricos</t>
-  </si>
-  <si>
     <t>PR0014</t>
   </si>
   <si>
@@ -258,14 +460,11 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_3/Tomo 1_trabajo de campo.pdf</t>
   </si>
   <si>
-    <t>El documento corresponde al producto 3, Tomo 1 "Trabajo en Campo", en el marco del proyecto que titula "Modelo de Flujo y Calidad de Aguas Subterráneas para Determinar la Dependencia a Largo Plazo de las Soluciones de Aguas Subterráneas en La Mojana".El informe se centra en la campaña de campo realizada entre agosto y noviembre de 2020, donde se llevaron a cabo pruebas de bombeo y muestreo hidrogeoquímico en varios pozos. El documento incluye un inventario de pozos, la metodología utilizada para las pruebas, y un análisis de la calidad del agua, así como la interacción con comunidades locales, incluyendo pueblos indígenas. Se abordan temas de gestión sostenible, prevención de la contaminación, y el cumplimiento de salvaguardas sociales y ambientales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El documento hace una descripción de los sitios donde se realizó el inventario de puntos de agua, realiza la descripción detallada de la realización de las pruebas de bombeo y el levantamiento topográfico de la cota del pozo con RTK. También detalla la metodología de muestreo hidrogeoquimico e isotópico (isotopos estables, carbono 14 y tritio), análisis fisicoquímico in situ y estudios geoeléctricos. Se realizaron al menos 50 pruebas de bombeo y se llevaron a cabo análisis de isótopos y principales iones en los pozos subterráneos y aguas superficiales. Estas actividades son fundamentales para entender la dinámica del agua subterránea y su calidad, lo que a su vez influye en la salud de las comunidades locales y en la sostenibilidad de los ecosistemas.
-En cuanto a las salvaguardas sociales y ambientales, el informe destaca el compromiso de la PUJ en el monitoreo de estos aspectos. Se abordaron principios de derechos humanos, igualdad de género, conservación de la biodiversidad y gestión sostenible de los recursos naturales. La inclusión de estos principios es crucial para asegurar que las intervenciones en la gestión del agua no solo sean efectivas desde el punto de vista técnico, sino que también respeten y promuevan los derechos de las comunidades afectadas.
-Una de las conclusiones más importantes del documento es la necesidad de fortalecer la capacidad institucional para la gestión del agua en la región. Esto incluye la capacitación de personal en temas de derechos humanos y género, así como la creación de mecanismos de participación comunitaria en la toma de decisiones relacionadas con el agua. La participación activa de las comunidades es esencial para garantizar que las soluciones propuestas sean adecuadas y sostenibles a largo plazo.
-Además, el informe enfatiza la importancia de adaptar las políticas públicas a las realidades locales y a los desafíos del cambio climático. Se sugiere que las lecciones aprendidas de este proyecto se utilicen para formular políticas que no solo aborden la gestión del agua, sino que también integren consideraciones sociales y ambientales.
-</t>
+    <t>El documento corresponde al producto 3, Tomo 1 "Trabajo en Campo", en el marco del proyecto que titula "Modelo de flujo y calidad de aguas subterráneas para determinar la dependencia a largo plazo de las soluciones de aguas subterráneas en La Mojana". El informe se centra en la campaña de campo realizada entre agosto y noviembre de 2020, donde se llevaron a cabo pruebas de bombeo y muestreo hidrogeoquímico en varios pozos. El documento incluye un inventario de pozos, la metodología utilizada para las pruebas y un análisis de la calidad del agua, así como la interacción con comunidades locales, incluyendo pueblos indígenas. Se abordan temas de gestión sostenible, prevención de la contaminación y el cumplimiento de salvaguardas sociales y ambientales</t>
+  </si>
+  <si>
+    <t>El documento hace una descripción de los sitios donde se realizó el inventario de puntos de agua, realiza la descripción detallada de la realización de las pruebas de bombeo y el levantamiento topográfico de la cota del pozo con RTK. También detalla la metodología de muestreo hidrogeoquimico e isotópico (isotopos estables, Carbono 14 y Tritio), análisis fisicoquímico in situ y estudios geoeléctricos. Se realizaron al menos 50 pruebas de bombeo y se llevaron a cabo análisis de isótopos y principales iones en los pozos subterráneos y aguas superficiales. Estas actividades son fundamentales para entender la dinámica del agua subterránea y su calidad, lo que a su vez influye en la salud de las comunidades locales y en la sostenibilidad de los ecosistemas.
+En cuanto a las salvaguardas sociales y ambientales, el informe destaca el compromiso de la PUJ en el monitoreo de estos aspectos. Se abordaron principios de derechos humanos, igualdad de género, conservación de la biodiversidad y gestión sostenible de los recursos naturales. La inclusión de estos principios es crucial para asegurar que las intervenciones en la gestión del agua no solo sean efectivas desde el punto de vista técnico, sino que también respeten y promuevan los derechos de las comunidades afectadas. Una de las conclusiones más importantes del documento es la necesidad de fortalecer la capacidad institucional para la gestión del agua en la región. Esto incluye la capacitación de personal en temas de derechos humanos y género, así como la creación de mecanismos de participación comunitaria en la toma de decisiones relacionadas con el agua. La participación activa de las comunidades es esencial para garantizar que las soluciones propuestas sean adecuadas y sostenibles a largo plazo. Además, el informe enfatiza la importancia de adaptar las políticas públicas a las realidades locales y a los desafíos del cambio climático. Se sugiere que las lecciones aprendidas de este proyecto se utilicen para formular políticas que no solo aborden la gestión del agua, sino que también integren consideraciones sociales y ambientales.</t>
   </si>
   <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_3/ANEXOS/ANEXOS_TOMO 1_TRABAJO EN CAMPO</t>
@@ -277,30 +476,6 @@
     <t xml:space="preserve">RTK, trabajo en campo, información primaria, pruebas de bombeo, analisis fisicoquimico, carbono 14, tritio, isótopos estables, iones principales, puntos de agua subterránea. </t>
   </si>
   <si>
-    <t>PR0004</t>
-  </si>
-  <si>
-    <t>Tomo 2. Analisis de resultados</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_3/Tomo 2. Analisis de resultados.pdf</t>
-  </si>
-  <si>
-    <t>El documento "Análisis de resultados", corresponde al tomo 2 del producto 3, en el marco del proyecto que titula "Modelo de Flujo y Calidad de Aguas Subterráneas para Determinar la Dependencia a Largo Plazo de las Soluciones de Aguas Subterráneas en La Mojana". Este documento contiene el análisis de la información primaria recolectada en campo, para la realización del modelo de flujo y calidad del agua subterránea.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El documento contiene el análisis de la información primaria recolectada en campo. Como pruebas de bombeo en 52 pozos, muestreo hidroquímico, muestreo isotópico, interpretacion de tomografías. Adicionalemnte presenta avances del modelo geológico 3D y cortes hidrogeológicos del modelo preliminar. Esta información es de valioso interés para aquellos usuarios que deseen complementar el modelo hidrogeológico conceptual y numérico, pues permite comprender los vacíos de información existentes en el área de estudio. </t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_3/ANEXOS/ANEXOS TOMO 2/1_PRUEBAS DE BOMBEO"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El documento no contiene información de variables para la toma de decisiones al ser un archivo en un estado de procesamiento, aun no se tienen en este punto resultados finales. Pero si coresponde a una información importante para conocer la validez de los datos usados en los modelos. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pruebas de bombeo, analisis hidrogeoquímico, información  primaria, muestreo en campo, analisis isotópico, tomografías. </t>
-  </si>
-  <si>
     <t>PR0015</t>
   </si>
   <si>
@@ -310,11 +485,10 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_3/Tomo 3. Avance hidrologico.pdf</t>
   </si>
   <si>
-    <t>El documento "Avance Hidrología e Hidrodinámica", corresponde al tomo 3 del producto 3, en el marco del proyecto que titula "Modelo de Flujo y Calidad de Aguas Subterráneas para Determinar la Dependencia a Largo Plazo de las Soluciones de Aguas Subterráneas en La Mojana". El objetivo del informe "Tomo 3. Avance hidrología e hidrodinámico" es presentar el avances de la consultoría en la construcción del Modelo Hidrológico y del Modelo Hidrodinámico. Específicamente, del modelo hidrológico se seleccionaron y definireron las coberturas del suelo, la inclusión de topografías existentes y estudios de suelos de la región. Sobre hidrodinámica</t>
-  </si>
-  <si>
-    <t>Presenta el procesamiento y análisis realizado a la información disponible de topografía, coberturas y suelos, las cuales constituyen el principal insumo cartográfico que define el comportamiento del agua en el modelo hidrológico. Para el caso de las coberturas se analizó el comportamiento en el tiempo de la variación de cada uno de los niveles de clasificación de la metodología Corine Land Cover y se homologó esta clasificación a los tipos con los que se cuenta en las bases de datos del SWAT. Debido a que la información proviene de diferentes fuentes se unificó en una capa única donde se estandarizaron los campos de las propiedades físicas y químicas de los diferentes tipos de suelo encontrados en un base de datos para su utilización en el modelo hidrológico.
-Por otro lado, se discuten los avances realizados de la generación de entradas de información del modelo hidrodinámico a ser aplicado en la región de La Mojana. Divido en dos partes: la primera parte presenta las diferentes capas de información creadas con el fin de establecer características físicas y condiciones iniciales del modelo, tales como la digitalización manual de los caños, ríos y ciénagas presentes en la zona de estudio. La segunda discute la metodología y los resultados obtenidos de la refinación del Modelo de Elevación Digital (DEM) que se tomó como base el elaborado por el Fondo Adaptación (2015).</t>
+    <t xml:space="preserve">El documento "Avance Hidrología e Hidrodinámica", corresponde al tomo 3 del producto 3, en el marco del proyecto que titula "Modelo de flujo y calidad de aguas subterráneas para determinar la dependencia a largo plazo de las soluciones de aguas subterráneas en La Mojana". El objetivo del informe "Tomo 3. Avance hidrología e hidrodinámico" es presentar el avances de la consultoría en la construcción del Modelo Hidrológico y del Modelo Hidrodinámico. Específicamente, del modelo hidrológico se seleccionaron y definireron las coberturas del suelo, la inclusión de topografías existentes y estudios de suelos de la región. </t>
+  </si>
+  <si>
+    <t>El documento presenta el procesamiento y análisis de la información disponible de topografía, coberturas y suelos, que constituyen el principal insumo cartográfico para definir el comportamiento del agua en el modelo hidrológico. En cuanto a las coberturas, se analizó la variación temporal de cada nivel de clasificación de la metodología Corine Land Cover, homologando esta clasificación a los tipos presentes en las bases de datos del SWAT. Dado que la información proviene de diferentes fuentes, se unificó en una capa única, estandarizando los campos de las propiedades físicas y químicas de los diversos tipos de suelo en una base de datos para su uso en el modelo hidrológico. Por otro lado, se discuten los avances en la generación de entradas de información para el modelo hidrodinámico a aplicarse en la región de La Mojana. Esta sección se divide en dos partes: la primera presenta las diferentes capas de información creadas para establecer las características físicas y condiciones iniciales del modelo, como la digitalización manual de caños, ríos y ciénagas en la zona de estudio. La segunda parte aborda la metodología y los resultados de la refinación del Modelo de Elevación Digital (DEM), tomando como referencia el elaborado por el Fondo Adaptación (2015).</t>
   </si>
   <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_3/ANEXOS/ANEXOS_TOMO 3_AVANCE MODELO HIDROLOGICO_HIDRODINAMICO/1_ANEXOS MODELO HIDROLOGICO</t>
@@ -323,83 +497,6 @@
     <t>Topobatimetría, modelo, drenajes, DEM, refinamiento, topografía, coberturas, suelos</t>
   </si>
   <si>
-    <t>PR0009</t>
-  </si>
-  <si>
-    <t>MODELO HIDRODINAMICO MOJANA</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_4/MODELO HIDRODINAMICO/MODELO HIDRODINAMICO MOJANA.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El documento "Modelo hidrodinámico de la Mojana", corresponde al producto 4, en el marco del proyecto que titula "Modelo de Flujo y Calidad de Aguas Subterráneas para Determinar la Dependencia a Largo Plazo de las Soluciones de Aguas Subterráneas en La Mojana". El documento presenta el desarrollo de un modelo hidrodinámico para la región de La Mojana, que corresponde a un insumo como condición de frontera y análisis de resultados para el modelo hidrogeológico numérico de núcleo de La Mojana. </t>
-  </si>
-  <si>
-    <t>Este documento esta estructurado en cuatro capitulos: 1) Recopilación y analisis de información secundaria de tipo hidrológica y topobatimetrica. 2) Generación de insumos para el montaje del modelo hidrodinámico. En este capitulo se realiza un refinamiento al modelo de elevación digital. 3) Configuración general del modelo generado. En este capitulo se describen las condiciones iniciales y de frontera, parametros numéricos, variables de control y la malla computacional. 4) Resultados. En este capitulo se presentan resultados de velocidad y profundidad del flujo. Contiene Anexos</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_4/MODELO HIDRODINAMICO/ANEXOS</t>
-  </si>
-  <si>
-    <t>Sin observaciones</t>
-  </si>
-  <si>
-    <t>Modelación hidrodinámica, DEM, openTELEMAC, Profundidades del flujo, velocidades del flujo.</t>
-  </si>
-  <si>
-    <t>PR0005</t>
-  </si>
-  <si>
-    <t>TOMO 1_MODELO HIDROGEOLOGICO</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_4/TOMO 1_MODELO HIDROGEOLOGICO.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El documento "Modelo hidrogeológico conceptual", corresponde al tomo 1 del producto 4, en el marco del proyecto que titula "Desarrollar un Modelo de Flujo y Calidad de Aguas Subterráneas para Determinar la Dependencia a Largo Plazo de las Soluciones de Aguas Subterráneas en La Mojana". Este documento contiene la descripción de la construcción del modelo hidrogeológico conceptual que es la base de construcción del modelo hidrogeológico numérico. Por otra parte, el documento presenta un análisis de vulnerabilidad a la contaminación de los acuíferos por tres metodologías.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">El modelo hidrogeológico conceptual se basa en la identificación de zonas de recarga y descarga, así como en la escorrentía y la interacción entre cuerpos de agua superficiales y aguas subterráneas. Se definen los límites del modelo y se analiza la variabilidad espaciotemporal de los principales parámetros hidrogeológicos. Para ello, se utilizan metodologías como el Proceso de Jerarquía Analítica (PJA), que permite asignar pesos a diferentes factores que influyen en la recarga de aguas subterráneas, como la litología, la densidad de lineamientos y la precipitación.
-El informe también aborda la calidad de las aguas subterráneas en La Mojana, identificando zonas con diferentes niveles de conductividad eléctrica, lo que indica la presencia de iones disueltos en el agua. Se identifican dos zonas diferenciadas: una con conductividades entre 23 y 200 μS/cm y otra con conductividades superiores a 250 μS/cm. Esta información es crucial para entender la calidad del agua y su idoneidad para diferentes usos. El modelo preliminar concluye que el flujo regional se dirige hacia el noreste, es decir, hacia el complejo cenagoso, y que la recarga potencial se transfiere lateralmente a baja profundidad.
-Además, se menciona la construcción de un mapa de vulnerabilidad intrínseca a la contaminación, utilizando al menos tres metodologías distintas, incluyendo las metodologías GOD y DRASTIC.  Se determinó que el periodo más crítico es el asociado a la recarga por condiciones húmedas (año Niña). Los municipios que presentan mayor vulnerabilidad a la contaminación según las tres metodologías son Ayapel, Majagual, Achí y Guaranda. Este mapa es fundamental para identificar puntos y fuentes difusas de contaminantes, así como para investigar la interacción de estas fuentes con los pozos circundantes.
-El alcance del proyecto se enmarca dentro de un macroproyecto que busca escalar prácticas de gestión del agua resilientes al cambio climático para comunidades vulnerables en La Mojana. Se espera que los resultados del estudio proporcionen lecciones aprendidas y herramientas que contribuyan a la formulación de políticas públicas de adaptación al cambio climático y gestión de aguas subterráneas a nivel nacional.
-El documento se estructura en varios capítulos, donde se presenta una descripción detallada del modelo hidrogeológico conceptual y los mapas de vulnerabilidad a la contaminación. También se incluye un análisis de la configuración geológica de La Mojana y los resultados de la modelación geológica 3D, que ayudan a comprender mejor el sistema hidrogeológico y su interacción con el entorno.
-En conclusión, el informe es un esfuerzo significativo para abordar la gestión sostenible de los recursos hídricos en La Mojana, proporcionando un marco conceptual y metodológico que puede ser utilizado por los actores institucionales y comunitarios para mejorar la resiliencia de la región frente a los desafíos del cambio climático y la contaminación. </t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_4/ANEXOS_PRODUCTO 4/ANEXOS TOMO 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El documento contiene información de variables valiosa para el modelo de toma de decisiones, como niveles piezométricos, mapas de vulnerabilidad a la contaminación, flujo base de salida de agua subterránea a superficie. Estas variables se detallanen las fichas N3 y N4. </t>
-  </si>
-  <si>
-    <t>Modelo hidrogeológico conceptual, datación agua subterránea, vulnerabilidad a la contaminación, acuíferos, recarga potencial, direcciones del flujo, interacción agua subterránea ciénaga, pozos, nivel piezométrico.</t>
-  </si>
-  <si>
-    <t>PR0001</t>
-  </si>
-  <si>
-    <t>TOMO_2_MODELO HIDROLOGICO</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_4/TOMO_2_MODELO HIDROLOGICO.pdf</t>
-  </si>
-  <si>
-    <t>El documento "Modelo hidrológico", corresponde al tomo 2 del producto 4, en el marco del proyecto que titula "Modelo de Flujo y Calidad de Aguas Subterráneas para Determinar la Dependencia a Largo Plazo de las Soluciones de Aguas Subterráneas en La Mojana". El informe describe la conceptualización del modelo SWAT, la información con la cual se construyó la simulación y los resultados a nivel de subcuenca de las variables precipitación media anual, evapotranspiración potencial media anual, evapotranspiración real media anual, escorrentía media anual y recarga media anual.</t>
-  </si>
-  <si>
-    <t>Este documento presenta los componentes, la construcción y los resultados del modelo hidrológico del área afluente a La Mojana. Utilizando información climática diaria y mensual (1976-2015), así como datos de suelos, topografía y coberturas, se realiza un balance hídrico para obtener valores mensuales y anuales de los principales componentes del ciclo hidrológico: precipitación, escorrentía, evapotranspiración y recarga. Contiene Anexos</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_4/ANEXOS_PRODUCTO 4/ANEXOS TOMO 2/1_MODELO_HIDROLOGICO</t>
-  </si>
-  <si>
-    <t>Documento con observaciones no parece documento final</t>
-  </si>
-  <si>
-    <t>Hidrología, precipitación, recarga, evapotranspiración, subcuencas, escorrentía, caudales</t>
-  </si>
-  <si>
     <t>PR0016</t>
   </si>
   <si>
@@ -409,111 +506,13 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_5/CAMBIO CLIMATICO/CAMBIO CLIMATICO MOJANA.pdf</t>
   </si>
   <si>
-    <t>El documento "Cambio Climático", corresponde al producto 5, en el marco del proyecto que titula "Modelo de Flujo y Calidad de Aguas Subterráneas para Determinar la Dependencia a Largo Plazo de las Soluciones de Aguas Subterráneas en La Mojana". El informe tiene como objetivos Evaluar en un periodo histórico la amenaza de la sequía en el territorio de la Mojana mediante el índice de Precipitación Estandarizado SPI. Y, Evaluar en un periodo histórico la amenaza de la sequía en el territorio de la Mojana mediante el índice de Precipitación Estandarizado SPI.</t>
-  </si>
-  <si>
-    <t>Presenta la regionalización o downscaling de series de variables climáticas para la región de La Mojana, bajo escenarios de cambio climático de Trayectorias de Concentración Representativas RCP para el periodo 2020-2100. Lo anterior, considerando al cambio climático como un forzador del clima futuro dentro de los escenarios de simulación para el cálculo de la recarga de la región de La Mojana, que podría tener impacto sobre las variables hidroclimáticas que intervienen en el ciclo hidrológico en la región. El impacto del cambio climático en el comportamiento de las variables de humedad relativa, precipitación, radiación solar, temperatura media, máxima y mínima, y velocidad del viento para la región de La Mojana; con lo que se esperaría que hubiera cambios en consecuencia en el comportamiento del ciclo hidrológico, que serán identificados una vez se usen las series proyectadas en la modelación hidrológica con SWAT, y servirán como herramienta para los tomadores de decisiones</t>
+    <t>El documento "Cambio Climático", corresponde al producto 5, en el marco del proyecto que titula "Modelo de flujo y calidad de aguas subterráneas para determinar la dependencia a largo plazo de las soluciones de aguas subterráneas en La Mojana". El informe tiene como objetivos Evaluar en un periodo histórico la amenaza de la sequía en el territorio de la Mojana mediante el índice de Precipitación Estandarizado SPI. Y, Evaluar en un periodo histórico la amenaza de la sequía en el territorio de la Mojana mediante el índice de Precipitación Estandarizado SPI.</t>
+  </si>
+  <si>
+    <t>El documento presenta la regionalización o downscaling de series de variables climáticas para la región de La Mojana, bajo escenarios de cambio climático de Trayectorias de Concentración Representativas (RCP) para el periodo 2020-2100. Lo anterior, considerando al cambio climático como un forzador del clima futuro dentro de los escenarios de simulación para el cálculo de la recarga de la región de La Mojana, podría impactar las variables hidroclimáticas que intervienen en el ciclo hidrológico en la región. El impacto del cambio climático en el comportamiento de las variables de humedad relativa, precipitación, radiación solar, temperatura media, máxima y mínima, y velocidad del viento para la región de La Mojana se espera que provoque cambios en el ciclo hidrológico. Estos cambios serán identificados una vez se utilicen las series proyectadas en la modelación hidrológica con SWAT, y servirán como herramienta para los tomadores de decisiones.</t>
   </si>
   <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_5/CAMBIO CLIMATICO/ANEXOS_CAMBIO_CLIMATICO</t>
-  </si>
-  <si>
-    <t>SPI, sequía, índice de precipitación estandarizado, clima de referencia, normal climática, cambio climático, downscaling, ENOS, ENSO, anomalía, MAE, RMSE, BIAS</t>
-  </si>
-  <si>
-    <t>PR0003</t>
-  </si>
-  <si>
-    <t>PRODUCTO_5</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_5/PRODUCTO_5.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El documento "Modelo hidrogeológico numérico", corresponde producto 5, en el marco del proyecto que titula "Modelo de Flujo y Calidad de Aguas Subterráneas para Determinar la Dependencia a Largo Plazo de las Soluciones de Aguas Subterráneas en La Mojana".  Este informe presenta todos los elementos utilizados para la construcción y análisis del modelo hidrogeológico numérico de la región de la Mojana, en el que se describen las interacciones agua superficial, agua subterránea. Se presenta además un capítulo de salud pública y calidad del agua subterránea en el que se evalúan algunos indicadores de calidad. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">El informe se estructura en varios capítulos, comenzando con un modelo hidrogeológico conceptual que describe las características geológicas de la región, utilizando datos del Atlas Geológico de Colombia y resultados de modelación geológica 3D. Se analizan aspectos hidráulicos, hidroquímicos, isotópicos y sistemas de flujo, lo que permite construir un modelo conceptual robusto que sirva de base para el desarrollo del modelo numérico.
-El documento también detalla la importancia del pH y la conductividad eléctrica del agua subterránea, que son indicadores de los procesos geoquímicos que ocurren en la interacción agua-roca. Se identifican dos zonas en La Mojana: una con pH ácido-neutro y otra con pH alcalino, lo que refleja la variabilidad en la calidad del agua en diferentes áreas. La conductividad eléctrica también muestra diferencias significativas entre las zonas, lo que sugiere variaciones en la composición química del agua subterránea.
-El desarrollo del modelo hidrogeológico numérico se basa en la selección de software adecuado y la construcción de una malla de diferencias finitas, que permite simular el flujo de agua subterránea. Se discuten aspectos técnicos sobre la discretización de la malla, buscando un balance entre precisión y eficiencia computacional. La malla se diseñó con un tamaño de celda de 1000 metros, lo que permite una representación adecuada del dominio hidrogeológico.
-El modelo hidrogeológico numérico permite simular el flujo y la calidad del agua subterránea en La Mojana. Este modelo fue calibrado y validado utilizando datos piezométricos y de calidad del agua, lo que indica un desempeño aceptable a pesar de la incertidumbre en los datos utilizados. Se realizó un análisis de la calidad del agua subterránea, encontrando variaciones significativas en parámetros como el pH y la conductividad eléctrica. Estas variaciones reflejan la influencia de procesos geoquímicos y la interacción entre el agua y las formaciones geológicas de la región. El modelo también permite investigar escenarios de conexión entre humedales y acuíferos, lo que es crucial para entender la dinámica hídrica de la región y su impacto en la disponibilidad de agua.
-Uno de los puntos clave del documento es la identificación de factores que intensifican el surgimiento de enfermedades transmitidas por el agua (EVA), como cambios en los patrones de uso del agua, crecimiento poblacional, urbanización, y el uso creciente de antibióticos en animales y humanos. Estos factores son cruciales para entender la calidad del agua y su impacto en la salud pública, especialmente en comunidades vulnerables donde las enfermedades diarreicas son una de las principales causas de mortalidad infantil. Se destacó la verificación de coliformes totales en el agua subterránea como indicador crítico para evaluar riesgos sanitarios
-</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_5/ANEXOS_PRODUCTO_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El documento contiene información de variables valiosa para el modelo de toma de decisiones, como niveles piezométricos, indicadores de salud pública, flujo base de salida de agua subterránea a superficie. Estas variables se detallanen las fichas N3 y N4. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modelo hidrogeológico numérico, modelo hidrogeológico conceptual, agua subterránea, IRCA, EDA, EVA, vulnerabilidad a los acuíferos, hidroquímica, isotopía, escenarios de modelación, calidad del agua, riesgo, priorización de acciones, </t>
-  </si>
-  <si>
-    <t>PR0006</t>
-  </si>
-  <si>
-    <t>PRODUCTO_6</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_6/PRODUCTO_6.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El documento "Base de datos SIG", corresponde al producto 6, en el marco del proyecto que titula "Modelo de Flujo y Calidad de Aguas Subterráneas para Determinar la Dependencia a Largo Plazo de las Soluciones de Aguas Subterráneas en La Mojana". Este documento representa una guía para la lectura y navegación en la base de datos geográfica (GBD). Contiene la descripción de la estructura de la base de datos geográfica consolidada en el proyecto. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se presenta el contenido de la estructura de las carpetas, estructura general de la geodatabase (GDB), se describe la información complementaria como los diccionarios de datos, y los archivos asociados a las salidas cartográficas. </t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_6/1_Base_de_datos_cartografica; s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_6/2_Salidas_Cartograficas"</t>
-  </si>
-  <si>
-    <t>El documento no contiene variables para la toma de decisiones, pero es un documento de consulta básico para la navegación de la base de datos geenrada por el proyecto.</t>
-  </si>
-  <si>
-    <t>Geodatabase, salidas cartográficas</t>
-  </si>
-  <si>
-    <t>PR0002</t>
-  </si>
-  <si>
-    <t>PRODUCTO_9</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_9/PRODUCTO_9.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El documento "Guía del modelo hidrogeológico numérico", corresponde producto 9, en el marco del proyecto que titula "Modelo de Flujo y Calidad de Aguas Subterráneas para Determinar la Dependencia a Largo Plazo de las Soluciones de Aguas Subterráneas en La Mojana". El documento corresponde a una guía que describe de manera general algunos conceptos básicos de modelación hidrogeológica, una síntesis del modelo hidrogeológico conceptual y una descripción detallada del cargue del modelo hidrogeológico numérico en la plataforma ModelMuse. Además describe el uso del ModelMuse para visualizar, editar y ejecutar el modelo actual y realizar modicicaciones para la construcción de nuevos modelos más detallados en la misma zona de estudio. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">El informe contiene la guía del uso del modelo numérico hidrogeológico, el cual fue desarrollado en el producto 5. La guía brinda acompañamiento en la instalación, ejecución y uso del modelo. Ayuda al usuario al análisis del modelo, facilita la retroalimentación del modelo y los procesos de transferencia, asimilación y disponibilidad oportuna de las herramientas para la toma de decisiones. En la guía se describe el paso a paso para el cargue de elementos, ejecución, modificación y obtención de resultados. </t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_9/ANEXOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta guía no sirve para la toma de decisiones, pero es un documento muy importante de consulta para el uso del modelo hidrogeológico numérico. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modelo hidrogeológico numérico, guía de modelación, agua subterránea, dominio modelación, entradas modelo, salidas modelo, resultado modelo, Modflow, ModeMmuse. </t>
-  </si>
-  <si>
-    <t>PR0008</t>
-  </si>
-  <si>
-    <t>A2-Métricas_de_comparación-Validación_de_precipitación</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_5/CAMBIO CLIMATICO/ANEXOS_CAMBIO_CLIMATICO/A2-Métricas_de_comparación-Validación_de_precipitación.pdf</t>
-  </si>
-  <si>
-    <t>El documento "Anexo 2 Validación de la precipitación en el área de estudio para el periodo de referencia - elección de GCM", corresponde al anexo 2 del producto 5 Cambio Climático, en el marco del proyecto que titula "Modelo de Flujo y Calidad de Aguas Subterráneas para Determinar la Dependencia a Largo Plazo de las Soluciones de Aguas Subterráneas en La Mojana". El documento muestra las métricas de comparación del análisis de variabilidad climática para el clima de referencia y que permitiera identificar el Modelo Climático Global GCM.</t>
-  </si>
-  <si>
-    <t>El informe de métricas permite identifica el Modelo Climático Global GCM seleccionado utilizándose error medio absoluto (MAE), la raíz del error medio cuadrático (RMSE), sesgo o BIAS y el coeficiente de correlación de Pearson. Adicionalmente, se realizó un análisis de variabilidad climática intranual con índice de anomalías de la precipitación y eventos ENOS. Para ello la metodología de downscaling estadístico empleada permitió obtener series a futuro a resolución diaria para el periodo 2020-2100 y para cada variable muestra una tendencia al aumento para parámetros como temperatura y velocidad del viento. En contraste, los parámetros de precipitación, humedad relativa y radiación solar muestran una tendencia de disminución.</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_5/CAMBIO CLIMATICO/ANEXOS_CAMBIO_CLIMATICO/ANEXO_3</t>
   </si>
 </sst>
 </file>
@@ -555,30 +554,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -634,24 +615,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -662,42 +629,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -983,8 +934,8 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="U17" sqref="U17"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -1001,964 +952,962 @@
     <col min="12" max="12" width="11.42578125" customWidth="1"/>
     <col min="13" max="13" width="9.28515625" customWidth="1"/>
     <col min="14" max="14" width="29.140625" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" style="14" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="7" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="11" customFormat="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:18" s="5" customFormat="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="16">
-        <v>2020</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="9">
+        <v>2021</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="H2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="23">
-        <v>2020</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="9">
+        <v>2022</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="H3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="28" t="s">
+      <c r="N3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="1" t="s">
+      <c r="Q3" s="8" t="s">
         <v>39</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="16">
-        <v>2022</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="D4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="9">
+        <v>2021</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="4" t="s">
+      <c r="H4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="5" t="s">
+      <c r="N4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="O4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="20" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:18" ht="17.25" customHeight="1">
+      <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="22">
-        <v>2020</v>
-      </c>
-      <c r="F5" s="17" t="s">
+      <c r="E5" s="9">
+        <v>2021</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="17" t="s">
+      <c r="H5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="N5" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="O5" s="18" t="s">
+      <c r="O5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="19" t="s">
+      <c r="P5" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="Q5" s="17" t="s">
+      <c r="Q5" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="R5" s="17" t="s">
+      <c r="R5" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="9">
         <v>2021</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="4" t="s">
+      <c r="H6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="24" t="s">
+      <c r="N6" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="P6" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="R6" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="20" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:18" ht="17.25" customHeight="1">
+      <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="9">
         <v>2021</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="17" t="s">
+      <c r="H7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="26" t="s">
+      <c r="N7" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="O7" s="18" t="s">
+      <c r="O7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="P7" s="19" t="s">
+      <c r="P7" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="Q7" s="17" t="s">
+      <c r="Q7" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="R7" s="17" t="s">
+      <c r="R7" s="8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="9">
+        <v>2022</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="17.25" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="9">
         <v>2021</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L8" s="4" t="s">
+      <c r="H9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="O8" s="5" t="s">
+      <c r="N9" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="P8" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" s="20" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="23">
-        <v>2021</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N9" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="O9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="R9" s="1" t="s">
+      <c r="P9" s="12" t="s">
         <v>87</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="B10" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="16">
+      <c r="C10" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="9">
         <v>2021</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="L10" s="4" t="s">
+      <c r="H10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N10" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="O10" s="5" t="s">
+      <c r="N10" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="P10" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q10" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="R10" s="4" t="s">
+      <c r="P10" s="12" t="s">
         <v>95</v>
       </c>
+      <c r="Q10" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" s="20" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:18" ht="17.25" customHeight="1">
+      <c r="A11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="17" t="s">
+      <c r="B11" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="20">
+      <c r="C11" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11">
         <v>2021</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="L11" s="17" t="s">
+      <c r="H11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="17" t="s">
+      <c r="M11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="O11" s="18" t="s">
+      <c r="N11" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="P11" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q11" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="R11" s="17" t="s">
+      <c r="P11" s="12" t="s">
         <v>103</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="B12" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="16">
+      <c r="C12" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="9">
+        <v>2020</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="17.25" customHeight="1">
+      <c r="A13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="9">
+        <v>2020</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="17.25" customHeight="1">
+      <c r="A14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="9">
+        <v>2020</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="17.25" customHeight="1">
+      <c r="A15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="9">
         <v>2021</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="L12" s="4" t="s">
+      <c r="H15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N12" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O12" s="5" t="s">
+      <c r="N15" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="O15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="P12" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>111</v>
+      <c r="P15" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="20" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="16" spans="1:18" ht="17.25" customHeight="1">
+      <c r="A16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13" s="23">
+      <c r="B16" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" s="9">
         <v>2021</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L13" s="1" t="s">
+      <c r="H16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="L16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N13" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="O13" s="13" t="s">
+      <c r="N16" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="O16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="P13" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" s="20" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A14" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" s="22">
-        <v>2021</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="L14" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="M14" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="N14" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="O14" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="P14" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q14" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="R14" s="17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" s="20" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E15" s="22">
-        <v>2021</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="L15" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="M15" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="N15" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="O15" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="P15" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q15" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="R15" s="17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" s="20" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A16" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E16" s="22">
-        <v>2022</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="L16" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="M16" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="N16" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="O16" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="P16" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q16" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="R16" s="17" t="s">
+      <c r="P16" s="12" t="s">
         <v>142</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C17" s="15" t="s">
+      <c r="B17" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="C17" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E17" s="23">
+      <c r="D17" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="9">
         <v>2021</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="L17" s="4" t="s">
+      <c r="H17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="L17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="M17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N17" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="O17" s="13" t="s">
+      <c r="N17" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="O17" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="P17" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1" t="s">
-        <v>118</v>
+      <c r="P17" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R17">
-      <sortCondition ref="D1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:R1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/P0002/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0002/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0002\09_FICHAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0002/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="659" documentId="13_ncr:1_{726E0FAF-3CA9-4E36-8D66-804E94F4492B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29AB243E-DEA1-4CC7-ADCA-77E02BE02C8F}"/>
+  <xr:revisionPtr revIDLastSave="671" documentId="13_ncr:1_{726E0FAF-3CA9-4E36-8D66-804E94F4492B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6357A00-BF07-4D1B-B427-04B83C5E63A6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -519,7 +519,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -615,7 +615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -650,6 +650,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -934,18 +937,18 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="U17" sqref="U17"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" customWidth="1"/>
     <col min="3" max="3" width="36.28515625" customWidth="1"/>
-    <col min="4" max="4" width="85.85546875" customWidth="1"/>
+    <col min="4" max="4" width="91.42578125" customWidth="1"/>
     <col min="6" max="7" width="9.5703125" customWidth="1"/>
     <col min="8" max="10" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28.7109375" customWidth="1"/>
@@ -956,7 +959,7 @@
     <col min="16" max="16" width="14.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="5" customFormat="1">
+    <row r="1" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1012,7 +1015,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="17.25" customHeight="1">
+    <row r="2" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
@@ -1068,7 +1071,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="17.25" customHeight="1">
+    <row r="3" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
@@ -1099,7 +1102,7 @@
       <c r="J3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="17" t="s">
         <v>36</v>
       </c>
       <c r="L3" s="8" t="s">
@@ -1124,7 +1127,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="17.25" customHeight="1">
+    <row r="4" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
@@ -1180,7 +1183,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="17.25" customHeight="1">
+    <row r="5" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
@@ -1236,7 +1239,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="17.25" customHeight="1">
+    <row r="6" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>18</v>
       </c>
@@ -1292,7 +1295,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="17.25" customHeight="1">
+    <row r="7" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
@@ -1348,7 +1351,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="17.25" customHeight="1">
+    <row r="8" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
@@ -1404,7 +1407,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="17.25" customHeight="1">
+    <row r="9" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
@@ -1435,7 +1438,7 @@
       <c r="J9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="17" t="s">
         <v>85</v>
       </c>
       <c r="L9" s="8" t="s">
@@ -1460,7 +1463,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="17.25" customHeight="1">
+    <row r="10" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
@@ -1516,7 +1519,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="17.25" customHeight="1">
+    <row r="11" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>18</v>
       </c>
@@ -1526,7 +1529,7 @@
       <c r="C11" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="17" t="s">
         <v>100</v>
       </c>
       <c r="E11">
@@ -1547,7 +1550,7 @@
       <c r="J11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="17" t="s">
         <v>101</v>
       </c>
       <c r="L11" s="8" t="s">
@@ -1556,7 +1559,7 @@
       <c r="M11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="10" t="s">
+      <c r="N11" s="16" t="s">
         <v>102</v>
       </c>
       <c r="O11" s="11" t="s">
@@ -1572,7 +1575,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="17.25" customHeight="1">
+    <row r="12" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>18</v>
       </c>
@@ -1603,7 +1606,7 @@
       <c r="J12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="17" t="s">
         <v>109</v>
       </c>
       <c r="L12" s="8" t="s">
@@ -1628,7 +1631,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="17.25" customHeight="1">
+    <row r="13" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
@@ -1659,7 +1662,7 @@
       <c r="J13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="17" t="s">
         <v>117</v>
       </c>
       <c r="L13" s="8" t="s">
@@ -1684,7 +1687,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="17.25" customHeight="1">
+    <row r="14" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1740,7 +1743,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="17.25" customHeight="1">
+    <row r="15" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>18</v>
       </c>
@@ -1771,7 +1774,7 @@
       <c r="J15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="17" t="s">
         <v>132</v>
       </c>
       <c r="L15" s="8" t="s">
@@ -1796,7 +1799,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="17.25" customHeight="1">
+    <row r="16" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>18</v>
       </c>
@@ -1827,7 +1830,7 @@
       <c r="J16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="17" t="s">
         <v>140</v>
       </c>
       <c r="L16" s="8" t="s">
@@ -1852,7 +1855,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="17.25" customHeight="1">
+    <row r="17" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>18</v>
       </c>
@@ -1892,7 +1895,7 @@
       <c r="M17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N17" s="10" t="s">
+      <c r="N17" s="16" t="s">
         <v>148</v>
       </c>
       <c r="O17" s="11" t="s">
@@ -1907,13 +1910,21 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010097FB7C5121AAD04EA5DBB516CB842770" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca6bde7a5d319871883c00f261789bac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3277f09b-73d6-4795-b7e6-f63d7d60cc69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6422850a7e45dad78806fd17bfbce0a" ns2:_="">
     <xsd:import namespace="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
@@ -2057,19 +2068,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>